--- a/biology/Zoologie/Cisticole_de_Carruthers/Cisticole_de_Carruthers.xlsx
+++ b/biology/Zoologie/Cisticole_de_Carruthers/Cisticole_de_Carruthers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cisticola carruthersi
 Le Cisticole de Carruthers (Cisticola carruthersi), ou Cisticole des papyrus, est une espèce d'oiseau de la famille des Cisticolidae. C'est une des espèces qualifiées d'endémiques du papyrus (Cyperus papyrus).
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau a le dos gris foncé et le ventre gris clair. La gorge est blanche. La queue, d'un gris très sombre, porte des bandes blanches. La tête présente une calotte marron châtain. Le bec est fin et noir.
 </t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,11 +587,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habitat
-Cet oiseau vit sur les rives des marais, lacs et fleuves africains bordés par des papyrus.
-Répartition et populations
-Cette espèce vit en Afrique et peut se rencontrer au Burundi, dans la République démocratique du Congo, au Kenya, au Rwanda, en Tanzanie et en Ouganda.
-La population mondiale a été estimée à environ 370 000 individus[1].
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau vit sur les rives des marais, lacs et fleuves africains bordés par des papyrus.
 </t>
         </is>
       </c>
@@ -601,13 +619,56 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition et populations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit en Afrique et peut se rencontrer au Burundi, dans la République démocratique du Congo, au Kenya, au Rwanda, en Tanzanie et en Ouganda.
+La population mondiale a été estimée à environ 370 000 individus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cisticole_de_Carruthers</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cisticole_de_Carruthers</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Le Cisticole de Carruthers et l'Homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Statut et préservation
-Cette espèce a été classée par l'UICN dans la catégorie LC (préoccupation mineure), du fait de sa population relativement importante[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Statut et préservation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été classée par l'UICN dans la catégorie LC (préoccupation mineure), du fait de sa population relativement importante.
 </t>
         </is>
       </c>
